--- a/NoSubs/metrics/AllMetricsRegression.xlsx
+++ b/NoSubs/metrics/AllMetricsRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>weight_centralization</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>possession_minutes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>goal_scored</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>I_normalized_minutes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Centralization</t>
         </is>
@@ -477,15 +482,18 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>0.0392184326633517</v>
+      </c>
+      <c r="D2" t="n">
         <v>32.54769891905</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>12.07458631645321</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.0630923684520097</v>
       </c>
     </row>
@@ -501,15 +509,18 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>0.0186500386187668</v>
+      </c>
+      <c r="D3" t="n">
         <v>35.34784718358333</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>13.77735955094256</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.02614593775893513</v>
       </c>
     </row>
@@ -525,15 +536,18 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0.0408256880733945</v>
+      </c>
+      <c r="D4" t="n">
         <v>30.30290110256667</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>11.88005065196572</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01671358250192193</v>
       </c>
     </row>
@@ -549,15 +563,18 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0.025533325964408</v>
+      </c>
+      <c r="D5" t="n">
         <v>27.10528458411666</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
       <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>12.24853400707505</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-0.005280371963528755</v>
       </c>
     </row>
@@ -573,15 +590,18 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0.0310271822451512</v>
+      </c>
+      <c r="D6" t="n">
         <v>24.49786538873333</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>15.3890959076534</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.009604607349899054</v>
       </c>
     </row>
@@ -597,15 +617,18 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.031251533140362</v>
+      </c>
+      <c r="D7" t="n">
         <v>25.0872315517</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>14.90798214339663</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.007571237885950452</v>
       </c>
     </row>
@@ -621,15 +644,18 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.0413874858262034</v>
+      </c>
+      <c r="D8" t="n">
         <v>35.65216553406666</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>14.97805230063088</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.01541873418835201</v>
       </c>
     </row>
@@ -645,15 +671,18 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.0336930649596746</v>
+      </c>
+      <c r="D9" t="n">
         <v>30.55138878718333</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>12.9944992931564</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.006861617514258421</v>
       </c>
     </row>
@@ -669,15 +698,18 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.0369014704034183</v>
+      </c>
+      <c r="D10" t="n">
         <v>39.5778554194</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>14.7557262466965</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.02988599404166479</v>
       </c>
     </row>
@@ -693,15 +725,18 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.0226339932399806</v>
+      </c>
+      <c r="D11" t="n">
         <v>27.63434070366666</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
       <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>11.00080523939056</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.01397079999021511</v>
       </c>
     </row>
@@ -717,15 +752,18 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.0386691398873681</v>
+      </c>
+      <c r="D12" t="n">
         <v>34.67710270301666</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>15.83177247250938</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.003328017623373993</v>
       </c>
     </row>
@@ -741,15 +779,18 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0.0328273561301084</v>
+      </c>
+      <c r="D13" t="n">
         <v>27.58655580045</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>9.968623919174211</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.01212752832324496</v>
       </c>
     </row>
@@ -765,15 +806,18 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.0228708059360137</v>
+      </c>
+      <c r="D14" t="n">
         <v>26.97216906833334</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>13.08756441151184</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.00828873928615639</v>
       </c>
     </row>
@@ -789,15 +833,18 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0.0157798165137614</v>
+      </c>
+      <c r="D15" t="n">
         <v>26.39928211915</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
       <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
         <v>11.36394537722602</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-0.0170085486615719</v>
       </c>
     </row>
@@ -813,15 +860,18 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.0230156954256305</v>
+      </c>
+      <c r="D16" t="n">
         <v>26.91612163691667</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>10.66275460749764</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-0.02953463357014187</v>
       </c>
     </row>
@@ -837,15 +887,18 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0.0298325527683325</v>
+      </c>
+      <c r="D17" t="n">
         <v>24.31590991721667</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>11.76184650188641</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.008907107940160074</v>
       </c>
     </row>
@@ -861,15 +914,18 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>0.0238596946218432</v>
+      </c>
+      <c r="D18" t="n">
         <v>24.52753856721666</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>11.53805137129642</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-0.04807897669946842</v>
       </c>
     </row>
@@ -885,15 +941,18 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0.006409999599375</v>
+      </c>
+      <c r="D19" t="n">
         <v>22.2698490837</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>10.28296146683869</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.0297417530752458</v>
       </c>
     </row>
@@ -909,15 +968,18 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>0.0198526094149496</v>
+      </c>
+      <c r="D20" t="n">
         <v>22.12981508506666</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>11.02584902142507</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>-0.03586423286936358</v>
       </c>
     </row>
@@ -933,15 +995,18 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.0295526508078265</v>
+      </c>
+      <c r="D21" t="n">
         <v>27.46428546725</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
       <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
         <v>12.34330310192279</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.03795200971691871</v>
       </c>
     </row>
@@ -957,15 +1022,18 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.0445675965165556</v>
+      </c>
+      <c r="D22" t="n">
         <v>34.53414958561667</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>11.40899673881355</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>-0.00125367485353612</v>
       </c>
     </row>
@@ -981,15 +1049,18 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>0.0307817647267188</v>
+      </c>
+      <c r="D23" t="n">
         <v>29.59023053495</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>8.752888886556207</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.01676401137533232</v>
       </c>
     </row>
@@ -1005,15 +1076,18 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.0250337813811251</v>
+      </c>
+      <c r="D24" t="n">
         <v>27.25872710293333</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>14.19728802957768</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>-0.02966522167005099</v>
       </c>
     </row>
@@ -1029,15 +1103,18 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>0.0340592666412638</v>
+      </c>
+      <c r="D25" t="n">
         <v>24.508988285</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>4</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>12.77082498715634</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>-0.006611135004761597</v>
       </c>
     </row>
@@ -1053,15 +1130,18 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>0.0282728795340349</v>
+      </c>
+      <c r="D26" t="n">
         <v>30.863414454</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
       <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>11.89110169735078</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>-0.01322122713574223</v>
       </c>
     </row>
@@ -1077,15 +1157,18 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>0.0296144887579027</v>
+      </c>
+      <c r="D27" t="n">
         <v>28.45247388511667</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>13.56648288505818</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>-0.01246693079044144</v>
       </c>
     </row>
@@ -1101,15 +1184,18 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>0.0342398427260812</v>
+      </c>
+      <c r="D28" t="n">
         <v>42.14412846746666</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>13.28773474179907</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>-0.02927017817754289</v>
       </c>
     </row>
@@ -1125,15 +1211,18 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>0.0223968189330969</v>
+      </c>
+      <c r="D29" t="n">
         <v>27.1761205003</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>14.09325514271885</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>-0.04182385708683202</v>
       </c>
     </row>
@@ -1149,15 +1238,18 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>0.036327942777173</v>
+      </c>
+      <c r="D30" t="n">
         <v>32.54381868403333</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>14.50352229966095</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.009649040531028382</v>
       </c>
     </row>
@@ -1173,15 +1265,18 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>0.036697247706422</v>
+      </c>
+      <c r="D31" t="n">
         <v>26.37871348446667</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
       <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
         <v>11.37280634162305</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.006712861745268082</v>
       </c>
     </row>
@@ -1197,15 +1292,18 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>0.0351268699892553</v>
+      </c>
+      <c r="D32" t="n">
         <v>32.47934280043334</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>13.67022734197923</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.02546037865654086</v>
       </c>
     </row>
@@ -1221,15 +1319,18 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>0.0215022935779816</v>
+      </c>
+      <c r="D33" t="n">
         <v>20.57089466711667</v>
       </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
       <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
         <v>9.333575573984106</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.001495031448705649</v>
       </c>
     </row>
@@ -1245,15 +1346,18 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>0.0259411578614362</v>
+      </c>
+      <c r="D34" t="n">
         <v>25.84266236843333</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>12.34392940835913</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>-0.01468653399362705</v>
       </c>
     </row>
@@ -1269,15 +1373,18 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>0.0302937011267779</v>
+      </c>
+      <c r="D35" t="n">
         <v>25.40640673416667</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>11.7293249343776</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.04094733281985025</v>
       </c>
     </row>
@@ -1293,15 +1400,18 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>0.0126238532110091</v>
+      </c>
+      <c r="D36" t="n">
         <v>25.113240667</v>
       </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
       <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
         <v>14.93236197480351</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>-0.05335395842255831</v>
       </c>
     </row>
@@ -1317,15 +1427,18 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>0.0070398801722523</v>
+      </c>
+      <c r="D37" t="n">
         <v>37.90049536888333</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>3</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>12.9285909123577</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>-0.04338948924788977</v>
       </c>
     </row>
@@ -1341,15 +1454,18 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>0.022410795738162</v>
+      </c>
+      <c r="D38" t="n">
         <v>34.0437188673</v>
       </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
       <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
         <v>15.65633889991855</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>-0.01435102678528375</v>
       </c>
     </row>
@@ -1365,15 +1481,18 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>0.0050926014228766</v>
+      </c>
+      <c r="D39" t="n">
         <v>30.77823768506666</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>15.6279253192387</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.02251238849808159</v>
       </c>
     </row>
@@ -1389,15 +1508,18 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>0.0371931564592115</v>
+      </c>
+      <c r="D40" t="n">
         <v>28.85453891771666</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>15.38752711544402</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.008450402133223628</v>
       </c>
     </row>
@@ -1413,15 +1535,18 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>0.0056551872512409</v>
+      </c>
+      <c r="D41" t="n">
         <v>37.2529864675</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>16.02556081029452</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>-0.00442632839034691</v>
       </c>
     </row>
@@ -1437,15 +1562,18 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>0.0534824036107259</v>
+      </c>
+      <c r="D42" t="n">
         <v>40.5253530011</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>2</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>15.34841658216072</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.03245350757350352</v>
       </c>
     </row>
@@ -1461,15 +1589,18 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>0.0018638556961501</v>
+      </c>
+      <c r="D43" t="n">
         <v>29.32458665606667</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>4</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>15.10677729905367</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.00543049676225136</v>
       </c>
     </row>
@@ -1485,15 +1616,18 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>0.0158177791838026</v>
+      </c>
+      <c r="D44" t="n">
         <v>14.38042340001667</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>2</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>12.09978282001059</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>-0.05763059481935415</v>
       </c>
     </row>
@@ -1509,15 +1643,18 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>0.0378092855157075</v>
+      </c>
+      <c r="D45" t="n">
         <v>20.67359566666666</v>
       </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
       <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
         <v>12.76991212639724</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>-0.002579867252035612</v>
       </c>
     </row>
@@ -1533,15 +1670,18 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>0.0302752293577981</v>
+      </c>
+      <c r="D46" t="n">
         <v>19.52391280243333</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>10.75604066280336</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.01814779744027249</v>
       </c>
     </row>
@@ -1557,15 +1697,18 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>0.0450729464929196</v>
+      </c>
+      <c r="D47" t="n">
         <v>28.2775576706</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>2</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>16.65631825373999</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.0261518399988449</v>
       </c>
     </row>
@@ -1581,15 +1724,18 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>0.0299372283920811</v>
+      </c>
+      <c r="D48" t="n">
         <v>38.97409268468333</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>2</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>13.1625899325068</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>-0.001184115265126767</v>
       </c>
     </row>
@@ -1605,15 +1751,18 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>0.046429268564736</v>
+      </c>
+      <c r="D49" t="n">
         <v>44.91559071758333</v>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
       <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
         <v>14.64970157327597</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.009373754878674617</v>
       </c>
     </row>
@@ -1629,15 +1778,18 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>0.0307817647267188</v>
+      </c>
+      <c r="D50" t="n">
         <v>22.20506818795</v>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
       <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
         <v>11.66400381245176</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.009967091979562807</v>
       </c>
     </row>
@@ -1653,15 +1805,18 @@
         </is>
       </c>
       <c r="C51" t="n">
+        <v>0.0144907080686897</v>
+      </c>
+      <c r="D51" t="n">
         <v>29.40048981676667</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>13.26508512037064</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>-0.01520795210066776</v>
       </c>
     </row>
@@ -1677,15 +1832,18 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>0.0302452199262625</v>
+      </c>
+      <c r="D52" t="n">
         <v>32.91422239021666</v>
       </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
       <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
         <v>13.00349723975911</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>0.07435818249288405</v>
       </c>
     </row>
@@ -1701,15 +1859,18 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>0.0318784171995181</v>
+      </c>
+      <c r="D53" t="n">
         <v>34.18272078571667</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>14.48100059392689</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>-0.01528740518771104</v>
       </c>
     </row>
@@ -1725,15 +1886,18 @@
         </is>
       </c>
       <c r="C54" t="n">
+        <v>0.0396829705227729</v>
+      </c>
+      <c r="D54" t="n">
         <v>29.17386617016667</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>2</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>11.5857116101273</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>-0.000588259940032973</v>
       </c>
     </row>
@@ -1749,15 +1913,18 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>0.0269852471687334</v>
+      </c>
+      <c r="D55" t="n">
         <v>26.38468125033333</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>10.34691294580453</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>0.04412949593701909</v>
       </c>
     </row>
@@ -1773,15 +1940,18 @@
         </is>
       </c>
       <c r="C56" t="n">
+        <v>0.0346321811841971</v>
+      </c>
+      <c r="D56" t="n">
         <v>40.37557321898333</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>3</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>13.42395802185586</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>0.0006174090439962708</v>
       </c>
     </row>
@@ -1797,15 +1967,18 @@
         </is>
       </c>
       <c r="C57" t="n">
+        <v>0.0497811937712419</v>
+      </c>
+      <c r="D57" t="n">
         <v>35.68202210058334</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>3</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>11.57445614589337</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>0.08701680814539035</v>
       </c>
     </row>
@@ -1821,15 +1994,18 @@
         </is>
       </c>
       <c r="C58" t="n">
+        <v>0.0259107136002456</v>
+      </c>
+      <c r="D58" t="n">
         <v>19.74075580025</v>
       </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
       <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
         <v>12.10693260270072</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.04349657144231037</v>
       </c>
     </row>
@@ -1845,15 +2021,18 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>0.023773681370182</v>
+      </c>
+      <c r="D59" t="n">
         <v>24.9319182507</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>12.95528072698262</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>-0.03455093570287644</v>
       </c>
     </row>
@@ -1869,15 +2048,18 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>0.015061411110779</v>
+      </c>
+      <c r="D60" t="n">
         <v>25.72325096718333</v>
       </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
       <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
         <v>11.93472786125121</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>-0.03984321243956113</v>
       </c>
     </row>
@@ -1893,15 +2075,18 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>0.0446123403489836</v>
+      </c>
+      <c r="D61" t="n">
         <v>30.78347486845</v>
       </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
       <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
         <v>14.91059738906959</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>0.002959315631126816</v>
       </c>
     </row>
@@ -1917,15 +2102,18 @@
         </is>
       </c>
       <c r="C62" t="n">
+        <v>0.0297490555855369</v>
+      </c>
+      <c r="D62" t="n">
         <v>16.59899741696667</v>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
       <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
         <v>8.193265929482438</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>-0.008048076640522058</v>
       </c>
     </row>
@@ -1941,15 +2129,18 @@
         </is>
       </c>
       <c r="C63" t="n">
+        <v>0.043968528985713</v>
+      </c>
+      <c r="D63" t="n">
         <v>28.73916877001666</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>11.23901677827868</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.03274048185511035</v>
       </c>
     </row>
@@ -1965,15 +2156,18 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>0.0497174655694733</v>
+      </c>
+      <c r="D64" t="n">
         <v>34.9729286836</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>12.2094435917297</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>-0.013814494025414</v>
       </c>
     </row>
@@ -1989,15 +2183,18 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>0.0266628440366972</v>
+      </c>
+      <c r="D65" t="n">
         <v>37.3542553201</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>3</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>14.5632671656361</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>-0.01697610292274935</v>
       </c>
     </row>
@@ -2013,15 +2210,18 @@
         </is>
       </c>
       <c r="C66" t="n">
+        <v>0.0338157086255482</v>
+      </c>
+      <c r="D66" t="n">
         <v>29.3764190836</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>2</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>14.73971346772253</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.05874213733497512</v>
       </c>
     </row>
@@ -2037,15 +2237,18 @@
         </is>
       </c>
       <c r="C67" t="n">
+        <v>0.032505240009621</v>
+      </c>
+      <c r="D67" t="n">
         <v>23.35465090176667</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>2</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>11.43241237572096</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>-0.0147584949030132</v>
       </c>
     </row>
@@ -2061,15 +2264,18 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>0.0409420785978365</v>
+      </c>
+      <c r="D68" t="n">
         <v>21.99924133566667</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>9.136678712375645</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.01241210406289643</v>
       </c>
     </row>
@@ -2085,15 +2291,18 @@
         </is>
       </c>
       <c r="C69" t="n">
+        <v>0.031851660421243</v>
+      </c>
+      <c r="D69" t="n">
         <v>35.06864897023333</v>
       </c>
-      <c r="D69" t="n">
-        <v>1</v>
-      </c>
       <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
         <v>12.1476022746583</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>-0.03044244512327149</v>
       </c>
     </row>
@@ -2109,15 +2318,18 @@
         </is>
       </c>
       <c r="C70" t="n">
+        <v>0.034220746327461</v>
+      </c>
+      <c r="D70" t="n">
         <v>15.42982895073333</v>
       </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
       <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
         <v>10.56395378849958</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.004302512233124893</v>
       </c>
     </row>
@@ -2133,15 +2345,18 @@
         </is>
       </c>
       <c r="C71" t="n">
+        <v>0.0245091521517528</v>
+      </c>
+      <c r="D71" t="n">
         <v>21.1972313668</v>
       </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
       <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
         <v>9.765426268083866</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>-0.01977272476538996</v>
       </c>
     </row>
@@ -2157,15 +2372,18 @@
         </is>
       </c>
       <c r="C72" t="n">
+        <v>0.0226993284781991</v>
+      </c>
+      <c r="D72" t="n">
         <v>22.7421081855</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>12.79564751105779</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>-0.04839006421313399</v>
       </c>
     </row>
@@ -2181,15 +2399,18 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>0.0353992743148765</v>
+      </c>
+      <c r="D73" t="n">
         <v>29.5662895355</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>10.5187361987572</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.05203112924828907</v>
       </c>
     </row>
@@ -2205,15 +2426,18 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>0.0230011239185551</v>
+      </c>
+      <c r="D74" t="n">
         <v>23.76738650375</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>2</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>14.76813615769742</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>-0.04278216750664227</v>
       </c>
     </row>
@@ -2229,15 +2453,18 @@
         </is>
       </c>
       <c r="C75" t="n">
+        <v>0.0261356008055493</v>
+      </c>
+      <c r="D75" t="n">
         <v>19.66338855016667</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>0</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>10.42546657088066</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>-0.0022686085141416</v>
       </c>
     </row>
@@ -2253,15 +2480,18 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>0.0146788990825688</v>
+      </c>
+      <c r="D76" t="n">
         <v>33.62819836801667</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>14.7197894630831</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.03182716325767884</v>
       </c>
     </row>
@@ -2277,15 +2507,18 @@
         </is>
       </c>
       <c r="C77" t="n">
+        <v>0.0416421541348003</v>
+      </c>
+      <c r="D77" t="n">
         <v>49.50347670343333</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>11.65574699847258</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.03343912847989469</v>
       </c>
     </row>
@@ -2301,15 +2534,18 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>0.0561674959017572</v>
+      </c>
+      <c r="D78" t="n">
         <v>49.10302138836666</v>
       </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
       <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
         <v>12.99309048528637</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.0356232175856268</v>
       </c>
     </row>
@@ -2325,15 +2561,18 @@
         </is>
       </c>
       <c r="C79" t="n">
+        <v>0.0448967889908256</v>
+      </c>
+      <c r="D79" t="n">
         <v>35.93920506735</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>5</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>13.3558880643153</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.0002701671915397213</v>
       </c>
     </row>
@@ -2349,15 +2588,18 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>0.0480810797828906</v>
+      </c>
+      <c r="D80" t="n">
         <v>36.74059245341667</v>
       </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
       <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
         <v>15.59582907451766</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>-0.01735042042337518</v>
       </c>
     </row>
@@ -2373,15 +2615,18 @@
         </is>
       </c>
       <c r="C81" t="n">
+        <v>0.0415258329309512</v>
+      </c>
+      <c r="D81" t="n">
         <v>45.83646875605</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>15.75164971461076</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>-0.01478830518047807</v>
       </c>
     </row>
@@ -2397,15 +2642,18 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>0.0659844742413549</v>
+      </c>
+      <c r="D82" t="n">
         <v>51.75149475506667</v>
       </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
       <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
         <v>13.56482558276776</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>0.0556399371436283</v>
       </c>
     </row>
@@ -2421,15 +2669,18 @@
         </is>
       </c>
       <c r="C83" t="n">
+        <v>0.015462323471807</v>
+      </c>
+      <c r="D83" t="n">
         <v>12.0504264689</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>7.38563072682059</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>-0.01454647075807899</v>
       </c>
     </row>
@@ -2445,15 +2696,18 @@
         </is>
       </c>
       <c r="C84" t="n">
+        <v>0.0134145401279778</v>
+      </c>
+      <c r="D84" t="n">
         <v>17.07288028506667</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>3</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>6.970118574783606</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>0.0039118281919944</v>
       </c>
     </row>
@@ -2469,15 +2723,18 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>0.0178417557909676</v>
+      </c>
+      <c r="D85" t="n">
         <v>23.93181723641667</v>
       </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
       <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
         <v>15.12630639052141</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.02457106205155038</v>
       </c>
     </row>
@@ -2493,15 +2750,18 @@
         </is>
       </c>
       <c r="C86" t="n">
+        <v>0.0334582253659219</v>
+      </c>
+      <c r="D86" t="n">
         <v>36.18623306868334</v>
       </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
       <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
         <v>14.48064513942142</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.01622381179993779</v>
       </c>
     </row>
@@ -2517,15 +2777,18 @@
         </is>
       </c>
       <c r="C87" t="n">
+        <v>0.0306307650232465</v>
+      </c>
+      <c r="D87" t="n">
         <v>30.16957701701666</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>3</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>12.23086421768099</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>0.01711400385493966</v>
       </c>
     </row>
@@ -2541,15 +2804,18 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>0.0407664989641905</v>
+      </c>
+      <c r="D88" t="n">
         <v>29.38219678381667</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>12.66072794818707</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.04960535913689712</v>
       </c>
     </row>
@@ -2565,15 +2831,18 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>0.02457862171965</v>
+      </c>
+      <c r="D89" t="n">
         <v>23.76063068613333</v>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
       <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
         <v>9.048581363013806</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>-0.02452112048776289</v>
       </c>
     </row>
@@ -2589,15 +2858,18 @@
         </is>
       </c>
       <c r="C90" t="n">
+        <v>0.0347443001180852</v>
+      </c>
+      <c r="D90" t="n">
         <v>27.2852331172</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>3</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>14.80654382774276</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>-0.025879578874914</v>
       </c>
     </row>
@@ -2613,15 +2885,18 @@
         </is>
       </c>
       <c r="C91" t="n">
+        <v>0.0451904971755939</v>
+      </c>
+      <c r="D91" t="n">
         <v>31.48251641836667</v>
       </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
       <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
         <v>14.54775704437674</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>-0.001478216766741783</v>
       </c>
     </row>
@@ -2637,15 +2912,18 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>0.0184467448363832</v>
+      </c>
+      <c r="D92" t="n">
         <v>28.59795106725</v>
       </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
       <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
         <v>13.07785998795906</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>-0.03956148035787845</v>
       </c>
     </row>
@@ -2661,15 +2939,18 @@
         </is>
       </c>
       <c r="C93" t="n">
+        <v>0.0282025144410465</v>
+      </c>
+      <c r="D93" t="n">
         <v>21.56040458463333</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>0</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>11.27066048534138</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.01366174188298061</v>
       </c>
     </row>
@@ -2685,15 +2966,18 @@
         </is>
       </c>
       <c r="C94" t="n">
+        <v>0.0323244448255165</v>
+      </c>
+      <c r="D94" t="n">
         <v>29.1311430669</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>0</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>11.01913506321465</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>-0.01522763044424877</v>
       </c>
     </row>
@@ -2709,15 +2993,18 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>0.0245067236395626</v>
+      </c>
+      <c r="D95" t="n">
         <v>24.14068050306667</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>2</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>12.09576507020613</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>-0.01192749545385038</v>
       </c>
     </row>
@@ -2733,15 +3020,18 @@
         </is>
       </c>
       <c r="C96" t="n">
+        <v>0.0373656857338614</v>
+      </c>
+      <c r="D96" t="n">
         <v>43.25258961736667</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>2</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>12.69288162527885</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.004914077664394985</v>
       </c>
     </row>
@@ -2757,15 +3047,18 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>0.0321746995735883</v>
+      </c>
+      <c r="D97" t="n">
         <v>26.02932585291667</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>0</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>13.63846309374244</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>0.01042138025254447</v>
       </c>
     </row>
@@ -2781,15 +3074,18 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>0.0316930775646372</v>
+      </c>
+      <c r="D98" t="n">
         <v>31.34699791693333</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>0</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>14.3873426474557</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>0.06843369760603261</v>
       </c>
     </row>
@@ -2805,15 +3101,18 @@
         </is>
       </c>
       <c r="C99" t="n">
+        <v>0.0316057447523896</v>
+      </c>
+      <c r="D99" t="n">
         <v>26.85347981866666</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>14.22534444621439</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>-0.01374136835728531</v>
       </c>
     </row>
@@ -2829,15 +3128,18 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>0.0253084466940841</v>
+      </c>
+      <c r="D100" t="n">
         <v>16.20086358398333</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>0</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>12.53019624217391</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>-0.0454938602457229</v>
       </c>
     </row>
@@ -2853,15 +3155,18 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>0.0159798465934727</v>
+      </c>
+      <c r="D101" t="n">
         <v>20.97635716666666</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>2</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>11.63214365875397</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>-0.02707435337589269</v>
       </c>
     </row>
@@ -2877,15 +3182,18 @@
         </is>
       </c>
       <c r="C102" t="n">
+        <v>0.0311162079510703</v>
+      </c>
+      <c r="D102" t="n">
         <v>24.39358170371666</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>0</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>9.838653581709693</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>-0.02428392606027103</v>
       </c>
     </row>
@@ -2901,15 +3209,18 @@
         </is>
       </c>
       <c r="C103" t="n">
+        <v>0.0308256880733945</v>
+      </c>
+      <c r="D103" t="n">
         <v>21.17429715013333</v>
       </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
       <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
         <v>11.80676733812748</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>-0.05469385965976601</v>
       </c>
     </row>

--- a/NoSubs/metrics/AllMetricsRegression.xlsx
+++ b/NoSubs/metrics/AllMetricsRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>weight_centralization</t>
+          <t>possession_minutes</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>possession_minutes</t>
+          <t>goal_scored</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>goal_scored</t>
+          <t>I_normalized_minutes</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>I_normalized_minutes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Centralization</t>
         </is>
@@ -482,18 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0392184326633517</v>
+        <v>32.54769891905</v>
       </c>
       <c r="D2" t="n">
-        <v>32.54769891905</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>12.07458631645321</v>
       </c>
       <c r="F2" t="n">
-        <v>12.07458631645321</v>
-      </c>
-      <c r="G2" t="n">
         <v>0.0630923684520097</v>
       </c>
     </row>
@@ -509,18 +501,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0186500386187668</v>
+        <v>35.34784718358333</v>
       </c>
       <c r="D3" t="n">
-        <v>35.34784718358333</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>13.77735955094256</v>
       </c>
       <c r="F3" t="n">
-        <v>13.77735955094256</v>
-      </c>
-      <c r="G3" t="n">
         <v>-0.02614593775893513</v>
       </c>
     </row>
@@ -536,18 +525,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0408256880733945</v>
+        <v>30.30290110256667</v>
       </c>
       <c r="D4" t="n">
-        <v>30.30290110256667</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11.88005065196572</v>
       </c>
       <c r="F4" t="n">
-        <v>11.88005065196572</v>
-      </c>
-      <c r="G4" t="n">
         <v>0.01671358250192193</v>
       </c>
     </row>
@@ -563,18 +549,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.025533325964408</v>
+        <v>27.10528458411666</v>
       </c>
       <c r="D5" t="n">
-        <v>27.10528458411666</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>12.24853400707505</v>
       </c>
       <c r="F5" t="n">
-        <v>12.24853400707505</v>
-      </c>
-      <c r="G5" t="n">
         <v>-0.005280371963528755</v>
       </c>
     </row>
@@ -590,18 +573,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0310271822451512</v>
+        <v>24.49786538873333</v>
       </c>
       <c r="D6" t="n">
-        <v>24.49786538873333</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>15.3890959076534</v>
       </c>
       <c r="F6" t="n">
-        <v>15.3890959076534</v>
-      </c>
-      <c r="G6" t="n">
         <v>0.009604607349899054</v>
       </c>
     </row>
@@ -617,18 +597,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.031251533140362</v>
+        <v>25.0872315517</v>
       </c>
       <c r="D7" t="n">
-        <v>25.0872315517</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>14.90798214339663</v>
       </c>
       <c r="F7" t="n">
-        <v>14.90798214339663</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.007571237885950452</v>
       </c>
     </row>
@@ -644,18 +621,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0413874858262034</v>
+        <v>35.65216553406666</v>
       </c>
       <c r="D8" t="n">
-        <v>35.65216553406666</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>14.97805230063088</v>
       </c>
       <c r="F8" t="n">
-        <v>14.97805230063088</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.01541873418835201</v>
       </c>
     </row>
@@ -671,18 +645,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0336930649596746</v>
+        <v>30.55138878718333</v>
       </c>
       <c r="D9" t="n">
-        <v>30.55138878718333</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>12.9944992931564</v>
       </c>
       <c r="F9" t="n">
-        <v>12.9944992931564</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.006861617514258421</v>
       </c>
     </row>
@@ -698,18 +669,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0369014704034183</v>
+        <v>39.5778554194</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5778554194</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>14.7557262466965</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7557262466965</v>
-      </c>
-      <c r="G10" t="n">
         <v>-0.02988599404166479</v>
       </c>
     </row>
@@ -725,18 +693,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0226339932399806</v>
+        <v>27.63434070366666</v>
       </c>
       <c r="D11" t="n">
-        <v>27.63434070366666</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>11.00080523939056</v>
       </c>
       <c r="F11" t="n">
-        <v>11.00080523939056</v>
-      </c>
-      <c r="G11" t="n">
         <v>-0.01397079999021511</v>
       </c>
     </row>
@@ -752,18 +717,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0386691398873681</v>
+        <v>34.67710270301666</v>
       </c>
       <c r="D12" t="n">
-        <v>34.67710270301666</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>15.83177247250938</v>
       </c>
       <c r="F12" t="n">
-        <v>15.83177247250938</v>
-      </c>
-      <c r="G12" t="n">
         <v>-0.003328017623373993</v>
       </c>
     </row>
@@ -779,18 +741,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0328273561301084</v>
+        <v>27.58655580045</v>
       </c>
       <c r="D13" t="n">
-        <v>27.58655580045</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>9.968623919174211</v>
       </c>
       <c r="F13" t="n">
-        <v>9.968623919174211</v>
-      </c>
-      <c r="G13" t="n">
         <v>0.01212752832324496</v>
       </c>
     </row>
@@ -806,18 +765,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0228708059360137</v>
+        <v>26.97216906833334</v>
       </c>
       <c r="D14" t="n">
-        <v>26.97216906833334</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>13.08756441151184</v>
       </c>
       <c r="F14" t="n">
-        <v>13.08756441151184</v>
-      </c>
-      <c r="G14" t="n">
         <v>0.00828873928615639</v>
       </c>
     </row>
@@ -833,18 +789,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0157798165137614</v>
+        <v>26.39928211915</v>
       </c>
       <c r="D15" t="n">
-        <v>26.39928211915</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>11.36394537722602</v>
       </c>
       <c r="F15" t="n">
-        <v>11.36394537722602</v>
-      </c>
-      <c r="G15" t="n">
         <v>-0.0170085486615719</v>
       </c>
     </row>
@@ -860,18 +813,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0230156954256305</v>
+        <v>26.91612163691667</v>
       </c>
       <c r="D16" t="n">
-        <v>26.91612163691667</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10.66275460749764</v>
       </c>
       <c r="F16" t="n">
-        <v>10.66275460749764</v>
-      </c>
-      <c r="G16" t="n">
         <v>-0.02953463357014187</v>
       </c>
     </row>
@@ -887,18 +837,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0298325527683325</v>
+        <v>24.31590991721667</v>
       </c>
       <c r="D17" t="n">
-        <v>24.31590991721667</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>11.76184650188641</v>
       </c>
       <c r="F17" t="n">
-        <v>11.76184650188641</v>
-      </c>
-      <c r="G17" t="n">
         <v>-0.008907107940160074</v>
       </c>
     </row>
@@ -914,18 +861,15 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0238596946218432</v>
+        <v>24.52753856721666</v>
       </c>
       <c r="D18" t="n">
-        <v>24.52753856721666</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>11.53805137129642</v>
       </c>
       <c r="F18" t="n">
-        <v>11.53805137129642</v>
-      </c>
-      <c r="G18" t="n">
         <v>-0.04807897669946842</v>
       </c>
     </row>
@@ -941,18 +885,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.006409999599375</v>
+        <v>22.2698490837</v>
       </c>
       <c r="D19" t="n">
-        <v>22.2698490837</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>10.28296146683869</v>
       </c>
       <c r="F19" t="n">
-        <v>10.28296146683869</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.0297417530752458</v>
       </c>
     </row>
@@ -968,18 +909,15 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0198526094149496</v>
+        <v>22.12981508506666</v>
       </c>
       <c r="D20" t="n">
-        <v>22.12981508506666</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>11.02584902142507</v>
       </c>
       <c r="F20" t="n">
-        <v>11.02584902142507</v>
-      </c>
-      <c r="G20" t="n">
         <v>-0.03586423286936358</v>
       </c>
     </row>
@@ -995,18 +933,15 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0295526508078265</v>
+        <v>27.46428546725</v>
       </c>
       <c r="D21" t="n">
-        <v>27.46428546725</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>12.34330310192279</v>
       </c>
       <c r="F21" t="n">
-        <v>12.34330310192279</v>
-      </c>
-      <c r="G21" t="n">
         <v>0.03795200971691871</v>
       </c>
     </row>
@@ -1022,18 +957,15 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0445675965165556</v>
+        <v>34.53414958561667</v>
       </c>
       <c r="D22" t="n">
-        <v>34.53414958561667</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>11.40899673881355</v>
       </c>
       <c r="F22" t="n">
-        <v>11.40899673881355</v>
-      </c>
-      <c r="G22" t="n">
         <v>-0.00125367485353612</v>
       </c>
     </row>
@@ -1049,18 +981,15 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0307817647267188</v>
+        <v>29.59023053495</v>
       </c>
       <c r="D23" t="n">
-        <v>29.59023053495</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>8.752888886556207</v>
       </c>
       <c r="F23" t="n">
-        <v>8.752888886556207</v>
-      </c>
-      <c r="G23" t="n">
         <v>-0.01676401137533232</v>
       </c>
     </row>
@@ -1076,18 +1005,15 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0250337813811251</v>
+        <v>27.25872710293333</v>
       </c>
       <c r="D24" t="n">
-        <v>27.25872710293333</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>14.19728802957768</v>
       </c>
       <c r="F24" t="n">
-        <v>14.19728802957768</v>
-      </c>
-      <c r="G24" t="n">
         <v>-0.02966522167005099</v>
       </c>
     </row>
@@ -1103,18 +1029,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0340592666412638</v>
+        <v>24.508988285</v>
       </c>
       <c r="D25" t="n">
-        <v>24.508988285</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>12.77082498715634</v>
       </c>
       <c r="F25" t="n">
-        <v>12.77082498715634</v>
-      </c>
-      <c r="G25" t="n">
         <v>-0.006611135004761597</v>
       </c>
     </row>
@@ -1130,18 +1053,15 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0282728795340349</v>
+        <v>30.863414454</v>
       </c>
       <c r="D26" t="n">
-        <v>30.863414454</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>11.89110169735078</v>
       </c>
       <c r="F26" t="n">
-        <v>11.89110169735078</v>
-      </c>
-      <c r="G26" t="n">
         <v>-0.01322122713574223</v>
       </c>
     </row>
@@ -1157,18 +1077,15 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0296144887579027</v>
+        <v>28.45247388511667</v>
       </c>
       <c r="D27" t="n">
-        <v>28.45247388511667</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>13.56648288505818</v>
       </c>
       <c r="F27" t="n">
-        <v>13.56648288505818</v>
-      </c>
-      <c r="G27" t="n">
         <v>-0.01246693079044144</v>
       </c>
     </row>
@@ -1184,18 +1101,15 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0342398427260812</v>
+        <v>42.14412846746666</v>
       </c>
       <c r="D28" t="n">
-        <v>42.14412846746666</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>13.28773474179907</v>
       </c>
       <c r="F28" t="n">
-        <v>13.28773474179907</v>
-      </c>
-      <c r="G28" t="n">
         <v>-0.02927017817754289</v>
       </c>
     </row>
@@ -1211,18 +1125,15 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0223968189330969</v>
+        <v>27.1761205003</v>
       </c>
       <c r="D29" t="n">
-        <v>27.1761205003</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>14.09325514271885</v>
       </c>
       <c r="F29" t="n">
-        <v>14.09325514271885</v>
-      </c>
-      <c r="G29" t="n">
         <v>-0.04182385708683202</v>
       </c>
     </row>
@@ -1238,18 +1149,15 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.036327942777173</v>
+        <v>32.54381868403333</v>
       </c>
       <c r="D30" t="n">
-        <v>32.54381868403333</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>14.50352229966095</v>
       </c>
       <c r="F30" t="n">
-        <v>14.50352229966095</v>
-      </c>
-      <c r="G30" t="n">
         <v>0.009649040531028382</v>
       </c>
     </row>
@@ -1265,18 +1173,15 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.036697247706422</v>
+        <v>26.37871348446667</v>
       </c>
       <c r="D31" t="n">
-        <v>26.37871348446667</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>11.37280634162305</v>
       </c>
       <c r="F31" t="n">
-        <v>11.37280634162305</v>
-      </c>
-      <c r="G31" t="n">
         <v>0.006712861745268082</v>
       </c>
     </row>
@@ -1292,18 +1197,15 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0351268699892553</v>
+        <v>32.47934280043334</v>
       </c>
       <c r="D32" t="n">
-        <v>32.47934280043334</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>13.67022734197923</v>
       </c>
       <c r="F32" t="n">
-        <v>13.67022734197923</v>
-      </c>
-      <c r="G32" t="n">
         <v>0.02546037865654086</v>
       </c>
     </row>
@@ -1319,18 +1221,15 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0215022935779816</v>
+        <v>20.57089466711667</v>
       </c>
       <c r="D33" t="n">
-        <v>20.57089466711667</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>9.333575573984106</v>
       </c>
       <c r="F33" t="n">
-        <v>9.333575573984106</v>
-      </c>
-      <c r="G33" t="n">
         <v>0.001495031448705649</v>
       </c>
     </row>
@@ -1346,18 +1245,15 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0259411578614362</v>
+        <v>25.84266236843333</v>
       </c>
       <c r="D34" t="n">
-        <v>25.84266236843333</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>12.34392940835913</v>
       </c>
       <c r="F34" t="n">
-        <v>12.34392940835913</v>
-      </c>
-      <c r="G34" t="n">
         <v>-0.01468653399362705</v>
       </c>
     </row>
@@ -1373,18 +1269,15 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0302937011267779</v>
+        <v>25.40640673416667</v>
       </c>
       <c r="D35" t="n">
-        <v>25.40640673416667</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>11.7293249343776</v>
       </c>
       <c r="F35" t="n">
-        <v>11.7293249343776</v>
-      </c>
-      <c r="G35" t="n">
         <v>0.04094733281985025</v>
       </c>
     </row>
@@ -1400,18 +1293,15 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0126238532110091</v>
+        <v>25.113240667</v>
       </c>
       <c r="D36" t="n">
-        <v>25.113240667</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>14.93236197480351</v>
       </c>
       <c r="F36" t="n">
-        <v>14.93236197480351</v>
-      </c>
-      <c r="G36" t="n">
         <v>-0.05335395842255831</v>
       </c>
     </row>
@@ -1427,18 +1317,15 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0070398801722523</v>
+        <v>37.90049536888333</v>
       </c>
       <c r="D37" t="n">
-        <v>37.90049536888333</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>12.9285909123577</v>
       </c>
       <c r="F37" t="n">
-        <v>12.9285909123577</v>
-      </c>
-      <c r="G37" t="n">
         <v>-0.04338948924788977</v>
       </c>
     </row>
@@ -1454,18 +1341,15 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.022410795738162</v>
+        <v>34.0437188673</v>
       </c>
       <c r="D38" t="n">
-        <v>34.0437188673</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>15.65633889991855</v>
       </c>
       <c r="F38" t="n">
-        <v>15.65633889991855</v>
-      </c>
-      <c r="G38" t="n">
         <v>-0.01435102678528375</v>
       </c>
     </row>
@@ -1481,18 +1365,15 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0050926014228766</v>
+        <v>30.77823768506666</v>
       </c>
       <c r="D39" t="n">
-        <v>30.77823768506666</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>15.6279253192387</v>
       </c>
       <c r="F39" t="n">
-        <v>15.6279253192387</v>
-      </c>
-      <c r="G39" t="n">
         <v>0.02251238849808159</v>
       </c>
     </row>
@@ -1508,18 +1389,15 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0371931564592115</v>
+        <v>28.85453891771666</v>
       </c>
       <c r="D40" t="n">
-        <v>28.85453891771666</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.38752711544402</v>
       </c>
       <c r="F40" t="n">
-        <v>15.38752711544402</v>
-      </c>
-      <c r="G40" t="n">
         <v>0.008450402133223628</v>
       </c>
     </row>
@@ -1535,18 +1413,15 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0056551872512409</v>
+        <v>37.2529864675</v>
       </c>
       <c r="D41" t="n">
-        <v>37.2529864675</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>16.02556081029452</v>
       </c>
       <c r="F41" t="n">
-        <v>16.02556081029452</v>
-      </c>
-      <c r="G41" t="n">
         <v>-0.00442632839034691</v>
       </c>
     </row>
@@ -1562,18 +1437,15 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0534824036107259</v>
+        <v>40.5253530011</v>
       </c>
       <c r="D42" t="n">
-        <v>40.5253530011</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>15.34841658216072</v>
       </c>
       <c r="F42" t="n">
-        <v>15.34841658216072</v>
-      </c>
-      <c r="G42" t="n">
         <v>0.03245350757350352</v>
       </c>
     </row>
@@ -1589,18 +1461,15 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0018638556961501</v>
+        <v>29.32458665606667</v>
       </c>
       <c r="D43" t="n">
-        <v>29.32458665606667</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>15.10677729905367</v>
       </c>
       <c r="F43" t="n">
-        <v>15.10677729905367</v>
-      </c>
-      <c r="G43" t="n">
         <v>0.00543049676225136</v>
       </c>
     </row>
@@ -1616,18 +1485,15 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0158177791838026</v>
+        <v>14.38042340001667</v>
       </c>
       <c r="D44" t="n">
-        <v>14.38042340001667</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>12.09978282001059</v>
       </c>
       <c r="F44" t="n">
-        <v>12.09978282001059</v>
-      </c>
-      <c r="G44" t="n">
         <v>-0.05763059481935415</v>
       </c>
     </row>
@@ -1643,18 +1509,15 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0378092855157075</v>
+        <v>20.67359566666666</v>
       </c>
       <c r="D45" t="n">
-        <v>20.67359566666666</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>12.76991212639724</v>
       </c>
       <c r="F45" t="n">
-        <v>12.76991212639724</v>
-      </c>
-      <c r="G45" t="n">
         <v>-0.002579867252035612</v>
       </c>
     </row>
@@ -1670,18 +1533,15 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0302752293577981</v>
+        <v>19.52391280243333</v>
       </c>
       <c r="D46" t="n">
-        <v>19.52391280243333</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>10.75604066280336</v>
       </c>
       <c r="F46" t="n">
-        <v>10.75604066280336</v>
-      </c>
-      <c r="G46" t="n">
         <v>0.01814779744027249</v>
       </c>
     </row>
@@ -1697,18 +1557,15 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0450729464929196</v>
+        <v>28.2775576706</v>
       </c>
       <c r="D47" t="n">
-        <v>28.2775576706</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>16.65631825373999</v>
       </c>
       <c r="F47" t="n">
-        <v>16.65631825373999</v>
-      </c>
-      <c r="G47" t="n">
         <v>0.0261518399988449</v>
       </c>
     </row>
@@ -1724,18 +1581,15 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0299372283920811</v>
+        <v>38.97409268468333</v>
       </c>
       <c r="D48" t="n">
-        <v>38.97409268468333</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>13.1625899325068</v>
       </c>
       <c r="F48" t="n">
-        <v>13.1625899325068</v>
-      </c>
-      <c r="G48" t="n">
         <v>-0.001184115265126767</v>
       </c>
     </row>
@@ -1751,18 +1605,15 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.046429268564736</v>
+        <v>44.91559071758333</v>
       </c>
       <c r="D49" t="n">
-        <v>44.91559071758333</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>14.64970157327597</v>
       </c>
       <c r="F49" t="n">
-        <v>14.64970157327597</v>
-      </c>
-      <c r="G49" t="n">
         <v>0.009373754878674617</v>
       </c>
     </row>
@@ -1778,18 +1629,15 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0307817647267188</v>
+        <v>22.20506818795</v>
       </c>
       <c r="D50" t="n">
-        <v>22.20506818795</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>11.66400381245176</v>
       </c>
       <c r="F50" t="n">
-        <v>11.66400381245176</v>
-      </c>
-      <c r="G50" t="n">
         <v>0.009967091979562807</v>
       </c>
     </row>
@@ -1805,18 +1653,15 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0144907080686897</v>
+        <v>29.40048981676667</v>
       </c>
       <c r="D51" t="n">
-        <v>29.40048981676667</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>13.26508512037064</v>
       </c>
       <c r="F51" t="n">
-        <v>13.26508512037064</v>
-      </c>
-      <c r="G51" t="n">
         <v>-0.01520795210066776</v>
       </c>
     </row>
@@ -1832,18 +1677,15 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0302452199262625</v>
+        <v>32.91422239021666</v>
       </c>
       <c r="D52" t="n">
-        <v>32.91422239021666</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>13.00349723975911</v>
       </c>
       <c r="F52" t="n">
-        <v>13.00349723975911</v>
-      </c>
-      <c r="G52" t="n">
         <v>0.07435818249288405</v>
       </c>
     </row>
@@ -1859,18 +1701,15 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0318784171995181</v>
+        <v>34.18272078571667</v>
       </c>
       <c r="D53" t="n">
-        <v>34.18272078571667</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>14.48100059392689</v>
       </c>
       <c r="F53" t="n">
-        <v>14.48100059392689</v>
-      </c>
-      <c r="G53" t="n">
         <v>-0.01528740518771104</v>
       </c>
     </row>
@@ -1886,18 +1725,15 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0396829705227729</v>
+        <v>29.17386617016667</v>
       </c>
       <c r="D54" t="n">
-        <v>29.17386617016667</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>11.5857116101273</v>
       </c>
       <c r="F54" t="n">
-        <v>11.5857116101273</v>
-      </c>
-      <c r="G54" t="n">
         <v>-0.000588259940032973</v>
       </c>
     </row>
@@ -1913,18 +1749,15 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.0269852471687334</v>
+        <v>26.38468125033333</v>
       </c>
       <c r="D55" t="n">
-        <v>26.38468125033333</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>10.34691294580453</v>
       </c>
       <c r="F55" t="n">
-        <v>10.34691294580453</v>
-      </c>
-      <c r="G55" t="n">
         <v>0.04412949593701909</v>
       </c>
     </row>
@@ -1940,18 +1773,15 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0346321811841971</v>
+        <v>40.37557321898333</v>
       </c>
       <c r="D56" t="n">
-        <v>40.37557321898333</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>13.42395802185586</v>
       </c>
       <c r="F56" t="n">
-        <v>13.42395802185586</v>
-      </c>
-      <c r="G56" t="n">
         <v>0.0006174090439962708</v>
       </c>
     </row>
@@ -1967,18 +1797,15 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0497811937712419</v>
+        <v>35.68202210058334</v>
       </c>
       <c r="D57" t="n">
-        <v>35.68202210058334</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>11.57445614589337</v>
       </c>
       <c r="F57" t="n">
-        <v>11.57445614589337</v>
-      </c>
-      <c r="G57" t="n">
         <v>0.08701680814539035</v>
       </c>
     </row>
@@ -1994,18 +1821,15 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.0259107136002456</v>
+        <v>19.74075580025</v>
       </c>
       <c r="D58" t="n">
-        <v>19.74075580025</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>12.10693260270072</v>
       </c>
       <c r="F58" t="n">
-        <v>12.10693260270072</v>
-      </c>
-      <c r="G58" t="n">
         <v>0.04349657144231037</v>
       </c>
     </row>
@@ -2021,18 +1845,15 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.023773681370182</v>
+        <v>24.9319182507</v>
       </c>
       <c r="D59" t="n">
-        <v>24.9319182507</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>12.95528072698262</v>
       </c>
       <c r="F59" t="n">
-        <v>12.95528072698262</v>
-      </c>
-      <c r="G59" t="n">
         <v>-0.03455093570287644</v>
       </c>
     </row>
@@ -2048,18 +1869,15 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.015061411110779</v>
+        <v>25.72325096718333</v>
       </c>
       <c r="D60" t="n">
-        <v>25.72325096718333</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>11.93472786125121</v>
       </c>
       <c r="F60" t="n">
-        <v>11.93472786125121</v>
-      </c>
-      <c r="G60" t="n">
         <v>-0.03984321243956113</v>
       </c>
     </row>
@@ -2075,18 +1893,15 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0446123403489836</v>
+        <v>30.78347486845</v>
       </c>
       <c r="D61" t="n">
-        <v>30.78347486845</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>14.91059738906959</v>
       </c>
       <c r="F61" t="n">
-        <v>14.91059738906959</v>
-      </c>
-      <c r="G61" t="n">
         <v>0.002959315631126816</v>
       </c>
     </row>
@@ -2102,18 +1917,15 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0297490555855369</v>
+        <v>16.59899741696667</v>
       </c>
       <c r="D62" t="n">
-        <v>16.59899741696667</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>8.193265929482438</v>
       </c>
       <c r="F62" t="n">
-        <v>8.193265929482438</v>
-      </c>
-      <c r="G62" t="n">
         <v>-0.008048076640522058</v>
       </c>
     </row>
@@ -2129,18 +1941,15 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.043968528985713</v>
+        <v>28.73916877001666</v>
       </c>
       <c r="D63" t="n">
-        <v>28.73916877001666</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>11.23901677827868</v>
       </c>
       <c r="F63" t="n">
-        <v>11.23901677827868</v>
-      </c>
-      <c r="G63" t="n">
         <v>0.03274048185511035</v>
       </c>
     </row>
@@ -2156,18 +1965,15 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0497174655694733</v>
+        <v>34.9729286836</v>
       </c>
       <c r="D64" t="n">
-        <v>34.9729286836</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>12.2094435917297</v>
       </c>
       <c r="F64" t="n">
-        <v>12.2094435917297</v>
-      </c>
-      <c r="G64" t="n">
         <v>-0.013814494025414</v>
       </c>
     </row>
@@ -2183,18 +1989,15 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0266628440366972</v>
+        <v>37.3542553201</v>
       </c>
       <c r="D65" t="n">
-        <v>37.3542553201</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>14.5632671656361</v>
       </c>
       <c r="F65" t="n">
-        <v>14.5632671656361</v>
-      </c>
-      <c r="G65" t="n">
         <v>-0.01697610292274935</v>
       </c>
     </row>
@@ -2210,18 +2013,15 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0338157086255482</v>
+        <v>29.3764190836</v>
       </c>
       <c r="D66" t="n">
-        <v>29.3764190836</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>14.73971346772253</v>
       </c>
       <c r="F66" t="n">
-        <v>14.73971346772253</v>
-      </c>
-      <c r="G66" t="n">
         <v>0.05874213733497512</v>
       </c>
     </row>
@@ -2237,18 +2037,15 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.032505240009621</v>
+        <v>23.35465090176667</v>
       </c>
       <c r="D67" t="n">
-        <v>23.35465090176667</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>11.43241237572096</v>
       </c>
       <c r="F67" t="n">
-        <v>11.43241237572096</v>
-      </c>
-      <c r="G67" t="n">
         <v>-0.0147584949030132</v>
       </c>
     </row>
@@ -2264,18 +2061,15 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0409420785978365</v>
+        <v>21.99924133566667</v>
       </c>
       <c r="D68" t="n">
-        <v>21.99924133566667</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>9.136678712375645</v>
       </c>
       <c r="F68" t="n">
-        <v>9.136678712375645</v>
-      </c>
-      <c r="G68" t="n">
         <v>0.01241210406289643</v>
       </c>
     </row>
@@ -2291,18 +2085,15 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.031851660421243</v>
+        <v>35.06864897023333</v>
       </c>
       <c r="D69" t="n">
-        <v>35.06864897023333</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>12.1476022746583</v>
       </c>
       <c r="F69" t="n">
-        <v>12.1476022746583</v>
-      </c>
-      <c r="G69" t="n">
         <v>-0.03044244512327149</v>
       </c>
     </row>
@@ -2318,18 +2109,15 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.034220746327461</v>
+        <v>15.42982895073333</v>
       </c>
       <c r="D70" t="n">
-        <v>15.42982895073333</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>10.56395378849958</v>
       </c>
       <c r="F70" t="n">
-        <v>10.56395378849958</v>
-      </c>
-      <c r="G70" t="n">
         <v>-0.004302512233124893</v>
       </c>
     </row>
@@ -2345,18 +2133,15 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0245091521517528</v>
+        <v>21.1972313668</v>
       </c>
       <c r="D71" t="n">
-        <v>21.1972313668</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>9.765426268083866</v>
       </c>
       <c r="F71" t="n">
-        <v>9.765426268083866</v>
-      </c>
-      <c r="G71" t="n">
         <v>-0.01977272476538996</v>
       </c>
     </row>
@@ -2372,18 +2157,15 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.0226993284781991</v>
+        <v>22.7421081855</v>
       </c>
       <c r="D72" t="n">
-        <v>22.7421081855</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>12.79564751105779</v>
       </c>
       <c r="F72" t="n">
-        <v>12.79564751105779</v>
-      </c>
-      <c r="G72" t="n">
         <v>-0.04839006421313399</v>
       </c>
     </row>
@@ -2399,18 +2181,15 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0353992743148765</v>
+        <v>29.5662895355</v>
       </c>
       <c r="D73" t="n">
-        <v>29.5662895355</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>10.5187361987572</v>
       </c>
       <c r="F73" t="n">
-        <v>10.5187361987572</v>
-      </c>
-      <c r="G73" t="n">
         <v>0.05203112924828907</v>
       </c>
     </row>
@@ -2426,18 +2205,15 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.0230011239185551</v>
+        <v>23.76738650375</v>
       </c>
       <c r="D74" t="n">
-        <v>23.76738650375</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>14.76813615769742</v>
       </c>
       <c r="F74" t="n">
-        <v>14.76813615769742</v>
-      </c>
-      <c r="G74" t="n">
         <v>-0.04278216750664227</v>
       </c>
     </row>
@@ -2453,18 +2229,15 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.0261356008055493</v>
+        <v>19.66338855016667</v>
       </c>
       <c r="D75" t="n">
-        <v>19.66338855016667</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>10.42546657088066</v>
       </c>
       <c r="F75" t="n">
-        <v>10.42546657088066</v>
-      </c>
-      <c r="G75" t="n">
         <v>-0.0022686085141416</v>
       </c>
     </row>
@@ -2480,18 +2253,15 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0146788990825688</v>
+        <v>33.62819836801667</v>
       </c>
       <c r="D76" t="n">
-        <v>33.62819836801667</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>14.7197894630831</v>
       </c>
       <c r="F76" t="n">
-        <v>14.7197894630831</v>
-      </c>
-      <c r="G76" t="n">
         <v>0.03182716325767884</v>
       </c>
     </row>
@@ -2507,18 +2277,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0416421541348003</v>
+        <v>49.50347670343333</v>
       </c>
       <c r="D77" t="n">
-        <v>49.50347670343333</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>11.65574699847258</v>
       </c>
       <c r="F77" t="n">
-        <v>11.65574699847258</v>
-      </c>
-      <c r="G77" t="n">
         <v>0.03343912847989469</v>
       </c>
     </row>
@@ -2534,18 +2301,15 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0561674959017572</v>
+        <v>49.10302138836666</v>
       </c>
       <c r="D78" t="n">
-        <v>49.10302138836666</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>12.99309048528637</v>
       </c>
       <c r="F78" t="n">
-        <v>12.99309048528637</v>
-      </c>
-      <c r="G78" t="n">
         <v>0.0356232175856268</v>
       </c>
     </row>
@@ -2561,18 +2325,15 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0448967889908256</v>
+        <v>35.93920506735</v>
       </c>
       <c r="D79" t="n">
-        <v>35.93920506735</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>13.3558880643153</v>
       </c>
       <c r="F79" t="n">
-        <v>13.3558880643153</v>
-      </c>
-      <c r="G79" t="n">
         <v>0.0002701671915397213</v>
       </c>
     </row>
@@ -2588,18 +2349,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0480810797828906</v>
+        <v>36.74059245341667</v>
       </c>
       <c r="D80" t="n">
-        <v>36.74059245341667</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>15.59582907451766</v>
       </c>
       <c r="F80" t="n">
-        <v>15.59582907451766</v>
-      </c>
-      <c r="G80" t="n">
         <v>-0.01735042042337518</v>
       </c>
     </row>
@@ -2615,18 +2373,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0415258329309512</v>
+        <v>45.83646875605</v>
       </c>
       <c r="D81" t="n">
-        <v>45.83646875605</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>15.75164971461076</v>
       </c>
       <c r="F81" t="n">
-        <v>15.75164971461076</v>
-      </c>
-      <c r="G81" t="n">
         <v>-0.01478830518047807</v>
       </c>
     </row>
@@ -2642,18 +2397,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0659844742413549</v>
+        <v>51.75149475506667</v>
       </c>
       <c r="D82" t="n">
-        <v>51.75149475506667</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>13.56482558276776</v>
       </c>
       <c r="F82" t="n">
-        <v>13.56482558276776</v>
-      </c>
-      <c r="G82" t="n">
         <v>0.0556399371436283</v>
       </c>
     </row>
@@ -2669,18 +2421,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.015462323471807</v>
+        <v>12.0504264689</v>
       </c>
       <c r="D83" t="n">
-        <v>12.0504264689</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>7.38563072682059</v>
       </c>
       <c r="F83" t="n">
-        <v>7.38563072682059</v>
-      </c>
-      <c r="G83" t="n">
         <v>-0.01454647075807899</v>
       </c>
     </row>
@@ -2696,18 +2445,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0134145401279778</v>
+        <v>17.07288028506667</v>
       </c>
       <c r="D84" t="n">
-        <v>17.07288028506667</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>6.970118574783606</v>
       </c>
       <c r="F84" t="n">
-        <v>6.970118574783606</v>
-      </c>
-      <c r="G84" t="n">
         <v>0.0039118281919944</v>
       </c>
     </row>
@@ -2723,18 +2469,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0178417557909676</v>
+        <v>23.93181723641667</v>
       </c>
       <c r="D85" t="n">
-        <v>23.93181723641667</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>15.12630639052141</v>
       </c>
       <c r="F85" t="n">
-        <v>15.12630639052141</v>
-      </c>
-      <c r="G85" t="n">
         <v>0.02457106205155038</v>
       </c>
     </row>
@@ -2750,18 +2493,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0334582253659219</v>
+        <v>36.18623306868334</v>
       </c>
       <c r="D86" t="n">
-        <v>36.18623306868334</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>14.48064513942142</v>
       </c>
       <c r="F86" t="n">
-        <v>14.48064513942142</v>
-      </c>
-      <c r="G86" t="n">
         <v>0.01622381179993779</v>
       </c>
     </row>
@@ -2777,18 +2517,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0306307650232465</v>
+        <v>30.16957701701666</v>
       </c>
       <c r="D87" t="n">
-        <v>30.16957701701666</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>12.23086421768099</v>
       </c>
       <c r="F87" t="n">
-        <v>12.23086421768099</v>
-      </c>
-      <c r="G87" t="n">
         <v>0.01711400385493966</v>
       </c>
     </row>
@@ -2804,18 +2541,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0407664989641905</v>
+        <v>29.38219678381667</v>
       </c>
       <c r="D88" t="n">
-        <v>29.38219678381667</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>12.66072794818707</v>
       </c>
       <c r="F88" t="n">
-        <v>12.66072794818707</v>
-      </c>
-      <c r="G88" t="n">
         <v>0.04960535913689712</v>
       </c>
     </row>
@@ -2831,18 +2565,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.02457862171965</v>
+        <v>23.76063068613333</v>
       </c>
       <c r="D89" t="n">
-        <v>23.76063068613333</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>9.048581363013806</v>
       </c>
       <c r="F89" t="n">
-        <v>9.048581363013806</v>
-      </c>
-      <c r="G89" t="n">
         <v>-0.02452112048776289</v>
       </c>
     </row>
@@ -2858,18 +2589,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.0347443001180852</v>
+        <v>27.2852331172</v>
       </c>
       <c r="D90" t="n">
-        <v>27.2852331172</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>14.80654382774276</v>
       </c>
       <c r="F90" t="n">
-        <v>14.80654382774276</v>
-      </c>
-      <c r="G90" t="n">
         <v>-0.025879578874914</v>
       </c>
     </row>
@@ -2885,18 +2613,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0451904971755939</v>
+        <v>31.48251641836667</v>
       </c>
       <c r="D91" t="n">
-        <v>31.48251641836667</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>14.54775704437674</v>
       </c>
       <c r="F91" t="n">
-        <v>14.54775704437674</v>
-      </c>
-      <c r="G91" t="n">
         <v>-0.001478216766741783</v>
       </c>
     </row>
@@ -2912,18 +2637,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0184467448363832</v>
+        <v>28.59795106725</v>
       </c>
       <c r="D92" t="n">
-        <v>28.59795106725</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>13.07785998795906</v>
       </c>
       <c r="F92" t="n">
-        <v>13.07785998795906</v>
-      </c>
-      <c r="G92" t="n">
         <v>-0.03956148035787845</v>
       </c>
     </row>
@@ -2939,18 +2661,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0282025144410465</v>
+        <v>21.56040458463333</v>
       </c>
       <c r="D93" t="n">
-        <v>21.56040458463333</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>11.27066048534138</v>
       </c>
       <c r="F93" t="n">
-        <v>11.27066048534138</v>
-      </c>
-      <c r="G93" t="n">
         <v>0.01366174188298061</v>
       </c>
     </row>
@@ -2966,18 +2685,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0323244448255165</v>
+        <v>29.1311430669</v>
       </c>
       <c r="D94" t="n">
-        <v>29.1311430669</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>11.01913506321465</v>
       </c>
       <c r="F94" t="n">
-        <v>11.01913506321465</v>
-      </c>
-      <c r="G94" t="n">
         <v>-0.01522763044424877</v>
       </c>
     </row>
@@ -2993,18 +2709,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0245067236395626</v>
+        <v>24.14068050306667</v>
       </c>
       <c r="D95" t="n">
-        <v>24.14068050306667</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>12.09576507020613</v>
       </c>
       <c r="F95" t="n">
-        <v>12.09576507020613</v>
-      </c>
-      <c r="G95" t="n">
         <v>-0.01192749545385038</v>
       </c>
     </row>
@@ -3020,18 +2733,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.0373656857338614</v>
+        <v>43.25258961736667</v>
       </c>
       <c r="D96" t="n">
-        <v>43.25258961736667</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>12.69288162527885</v>
       </c>
       <c r="F96" t="n">
-        <v>12.69288162527885</v>
-      </c>
-      <c r="G96" t="n">
         <v>0.004914077664394985</v>
       </c>
     </row>
@@ -3047,18 +2757,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0321746995735883</v>
+        <v>26.02932585291667</v>
       </c>
       <c r="D97" t="n">
-        <v>26.02932585291667</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>13.63846309374244</v>
       </c>
       <c r="F97" t="n">
-        <v>13.63846309374244</v>
-      </c>
-      <c r="G97" t="n">
         <v>0.01042138025254447</v>
       </c>
     </row>
@@ -3074,18 +2781,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0316930775646372</v>
+        <v>31.34699791693333</v>
       </c>
       <c r="D98" t="n">
-        <v>31.34699791693333</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>14.3873426474557</v>
       </c>
       <c r="F98" t="n">
-        <v>14.3873426474557</v>
-      </c>
-      <c r="G98" t="n">
         <v>0.06843369760603261</v>
       </c>
     </row>
@@ -3101,18 +2805,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0316057447523896</v>
+        <v>26.85347981866666</v>
       </c>
       <c r="D99" t="n">
-        <v>26.85347981866666</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>14.22534444621439</v>
       </c>
       <c r="F99" t="n">
-        <v>14.22534444621439</v>
-      </c>
-      <c r="G99" t="n">
         <v>-0.01374136835728531</v>
       </c>
     </row>
@@ -3128,18 +2829,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.0253084466940841</v>
+        <v>16.20086358398333</v>
       </c>
       <c r="D100" t="n">
-        <v>16.20086358398333</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>12.53019624217391</v>
       </c>
       <c r="F100" t="n">
-        <v>12.53019624217391</v>
-      </c>
-      <c r="G100" t="n">
         <v>-0.0454938602457229</v>
       </c>
     </row>
@@ -3155,18 +2853,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0159798465934727</v>
+        <v>20.97635716666666</v>
       </c>
       <c r="D101" t="n">
-        <v>20.97635716666666</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>11.63214365875397</v>
       </c>
       <c r="F101" t="n">
-        <v>11.63214365875397</v>
-      </c>
-      <c r="G101" t="n">
         <v>-0.02707435337589269</v>
       </c>
     </row>
@@ -3182,18 +2877,15 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.0311162079510703</v>
+        <v>24.39358170371666</v>
       </c>
       <c r="D102" t="n">
-        <v>24.39358170371666</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>9.838653581709693</v>
       </c>
       <c r="F102" t="n">
-        <v>9.838653581709693</v>
-      </c>
-      <c r="G102" t="n">
         <v>-0.02428392606027103</v>
       </c>
     </row>
@@ -3209,18 +2901,15 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0308256880733945</v>
+        <v>21.17429715013333</v>
       </c>
       <c r="D103" t="n">
-        <v>21.17429715013333</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>11.80676733812748</v>
       </c>
       <c r="F103" t="n">
-        <v>11.80676733812748</v>
-      </c>
-      <c r="G103" t="n">
         <v>-0.05469385965976601</v>
       </c>
     </row>
